--- a/Excel/Atualização/Temas/Temas.xlsx
+++ b/Excel/Atualização/Temas/Temas.xlsx
@@ -132,10 +132,10 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.21"/>

--- a/Excel/Atualização/Temas/Temas.xlsx
+++ b/Excel/Atualização/Temas/Temas.xlsx
@@ -20,18 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t xml:space="preserve">Conjuntos numéricos_atualizado</t>
+    <t xml:space="preserve">Guerra Fria_atualizado</t>
   </si>
   <si>
-    <t xml:space="preserve">Análise combinatória_atualizado</t>
+    <t xml:space="preserve">Primeira Guerra Mundial_atualizado</t>
   </si>
   <si>
-    <t xml:space="preserve">Cálculo diferencial I_atualizado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cálculo diferencial II_atualizado</t>
+    <t xml:space="preserve">Segunda Guerra Mundial_atualizado</t>
   </si>
 </sst>
 </file>
@@ -129,13 +126,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.21"/>
@@ -143,7 +140,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
-        <v>76029</v>
+        <v>101089</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>0</v>
@@ -151,7 +148,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>76030</v>
+        <v>101090</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>1</v>
@@ -159,18 +156,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>76031</v>
+        <v>101091</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>76032</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
